--- a/tests/pecha/parser/google_doc/translation/data/zh/Chinese Root text Translation Metadata.xlsx
+++ b/tests/pecha/parser/google_doc/translation/data/zh/Chinese Root text Translation Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tsundue\mycodes\toolkit-v2\tests\pecha\parser\google_doc\translation\data\zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7EF287-52F0-4F24-8A35-155AC737DED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B23F62-74BB-42EE-8BD6-72BFFABA1A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Entries</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>commentary_of</t>
+  </si>
+  <si>
+    <t>IB66C26FB</t>
   </si>
 </sst>
 </file>
@@ -582,13 +585,13 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +661,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -688,7 +691,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -718,7 +721,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="15">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -748,7 +751,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="15">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
@@ -778,7 +781,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="33">
       <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
@@ -814,7 +817,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="82.5">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -848,7 +851,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="15">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -880,7 +883,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="15">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
@@ -912,7 +915,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="15">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -942,7 +945,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="15">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -972,7 +975,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="15">
       <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1002,7 +1005,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="15">
       <c r="A14" s="15" t="s">
         <v>28</v>
       </c>
@@ -1032,12 +1035,12 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="15">
       <c r="A15" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1064,7 +1067,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="15">
       <c r="A16" s="19" t="s">
         <v>25</v>
       </c>
@@ -1096,7 +1099,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="12.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1124,7 +1127,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="12.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1152,7 +1155,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="12.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
